--- a/results/hdm05/results.xlsx
+++ b/results/hdm05/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>classifier</t>
   </si>
@@ -45,12 +45,6 @@
     <t>EMBATrainer</t>
   </si>
   <si>
-    <t>ad motions</t>
-  </si>
-  <si>
-    <t>ad motions adtrained</t>
-  </si>
-  <si>
     <t>attacker parameters</t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
   </si>
   <si>
-    <t>492 out of 531</t>
-  </si>
-  <si>
-    <t>490 out of 531</t>
-  </si>
-  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
   </si>
   <si>
@@ -90,7 +78,7 @@
     <t>BayesianEMBATrainer</t>
   </si>
   <si>
-    <t>491 out of 531</t>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
   </si>
 </sst>
 </file>
@@ -409,29 +397,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -443,33 +431,27 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -480,34 +462,28 @@
       <c r="E2" s="1">
         <v>0.92659999999999998</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
+      <c r="F2" s="1">
+        <v>0.92279999999999995</v>
       </c>
       <c r="G2" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1">
         <v>0.9748</v>
       </c>
-      <c r="J2" s="1">
+      <c r="H2" s="1">
         <v>0.88849999999999996</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -518,105 +494,95 @@
       <c r="E3" s="1">
         <v>0.92659999999999998</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.6946</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.6946</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>0.92659999999999998</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="F4" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.9748</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H4" s="1">
+        <v>0.2656</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>0.92659999999999998</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -624,37 +590,31 @@
       <c r="E7" s="1">
         <v>0.92659999999999998</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
+      <c r="F7" s="1">
+        <v>0.92279999999999995</v>
       </c>
       <c r="G7" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1">
         <v>0.9748</v>
       </c>
-      <c r="J7" s="1">
+      <c r="H7" s="1">
         <v>0.89039999999999997</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -662,25 +622,79 @@
       <c r="E8" s="1">
         <v>0.92659999999999998</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.7026</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="1">
-        <v>0.88319999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.7026</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="E9" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
         <v>19</v>
       </c>
     </row>

--- a/results/hdm05/results.xlsx
+++ b/results/hdm05/results.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,9 @@
       <c r="G9" s="1">
         <v>0.9748</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>0.27600000000000002</v>
+      </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
@@ -690,7 +692,9 @@
       <c r="G10" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>0.224</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>

--- a/results/hdm05/results.xlsx
+++ b/results/hdm05/results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175AF90E-3278-4629-A398-02B5EE39E042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="32">
   <si>
     <t>classifier</t>
   </si>
@@ -30,67 +31,136 @@
     <t>ad train accuracy</t>
   </si>
   <si>
+    <t>attacker</t>
+  </si>
+  <si>
+    <t>adTrainer</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>EMBATrainer</t>
+  </si>
+  <si>
+    <t>attacker parameters</t>
+  </si>
+  <si>
+    <t>adTrainer parameters</t>
+  </si>
+  <si>
+    <t>CIASA</t>
+  </si>
+  <si>
+    <t>STGCN</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>hdm05</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
+  </si>
+  <si>
+    <t>ad-trained attack success rate</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
+  </si>
+  <si>
+    <t>BayesianEMBATrainer</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdm05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>normal attack success rate</t>
-  </si>
-  <si>
-    <t>attacker</t>
-  </si>
-  <si>
-    <t>adTrainer</t>
-  </si>
-  <si>
-    <t>SMART</t>
-  </si>
-  <si>
-    <t>EMBATrainer</t>
-  </si>
-  <si>
-    <t>attacker parameters</t>
-  </si>
-  <si>
-    <t>adTrainer parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CIASA</t>
-  </si>
-  <si>
-    <t>STGCN</t>
-  </si>
-  <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>hdm05</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
-  </si>
-  <si>
-    <t>ad-trained attack success rate</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
-  </si>
-  <si>
-    <t>BayesianEMBATrainer</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSTrainer(0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaussian noise N~(0,0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART,cp:0.005, attack epoch:1000, normal attack success rate:97.48%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART0.005)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART,cp:0.05, attack epoch:100, normal attack success rate:96.46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,9 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,36 +470,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="55.375" customWidth="1"/>
+    <col min="10" max="10" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -434,30 +509,30 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>0.92659999999999998</v>
@@ -472,24 +547,24 @@
         <v>0.88849999999999996</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>0.92659999999999998</v>
@@ -504,24 +579,24 @@
         <v>0.6946</v>
       </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>0.92659999999999998</v>
@@ -536,173 +611,528 @@
         <v>0.2656</v>
       </c>
       <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.9284</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1">
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.9002</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.9748</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.9002</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.9748</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.7026</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F5" s="1">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.9284</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G16" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H16" s="1">
         <v>0.224</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="4" customFormat="1">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.9002</v>
+      </c>
+      <c r="G17" s="5">
         <v>0.9748</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.89039999999999997</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.88319999999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.7026</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="H17" s="5">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.9002</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="2" customFormat="1">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G19" s="3">
         <v>0.9748</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="H19" s="3">
+        <v>0.2417</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="2" customFormat="1">
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G20" s="3">
         <v>0.87639999999999996</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
+      <c r="H20" s="3">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
